--- a/src/main/resources/prodExcel.xlsx
+++ b/src/main/resources/prodExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\星球项目\yupao-backend\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\SpringBoot\BoPao\bopao-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74299E8-2BC1-48E1-B949-987608B93BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89C5A83-02A8-42CB-865B-28ED1B4A9B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1509" yWindow="1509" windowWidth="24685" windowHeight="13054" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="1500" windowWidth="18000" windowHeight="10522" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>鱼皮</t>
-  </si>
-  <si>
     <t>827.6</t>
   </si>
   <si>
@@ -86,13 +83,17 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>bobo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -102,6 +103,11 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,11 +132,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -473,10 +480,10 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="14" width="9.5" style="1"/>
   </cols>
@@ -529,44 +536,44 @@
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
